--- a/data/score_based_efdata_binary.xlsx
+++ b/data/score_based_efdata_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26F3EF6-5E75-4B89-A1CB-B1097DAAE5D0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2736" yWindow="2316" windowWidth="11460" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_efdata_binary" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>dE</t>
   </si>
   <si>
-    <t>Quality</t>
-  </si>
-  <si>
     <t>dU(class)</t>
   </si>
   <si>
@@ -168,7 +165,10 @@
     <t>Hits</t>
   </si>
   <si>
-    <t>filename</t>
+    <t>Score Type</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC2" sqref="T2:AC53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1106,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="AC1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -1117,10 +1118,10 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1.85</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>1707</v>
+        <v>2.87</v>
       </c>
       <c r="E2">
         <v>14.777996999999999</v>
@@ -1165,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S33" si="0">SUM(K2:R2)</f>
+        <f t="shared" ref="S2:S53" si="0">SUM(K2:R2)</f>
         <v>7</v>
       </c>
       <c r="T2">
@@ -1206,7 +1207,7 @@
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC33" si="2">IF(C2&gt;2, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -1217,10 +1218,10 @@
         <v>28</v>
       </c>
       <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
         <v>2.02</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
       </c>
       <c r="E3">
         <v>17.045998000000001</v>
@@ -1314,13 +1315,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1.19</v>
+        <v>343</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>1.07</v>
       </c>
       <c r="E4">
         <v>17.448446000000001</v>
@@ -1406,7 +1407,7 @@
       </c>
       <c r="AC4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -1414,13 +1415,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>8.75</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2.92</v>
       </c>
       <c r="E5">
         <v>8.2198867999999994</v>
@@ -1511,16 +1512,16 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6">
-        <v>2.21</v>
+        <v>543</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="E6">
         <v>11.533735</v>
@@ -1611,16 +1612,16 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7">
-        <v>0.64</v>
+        <v>531</v>
       </c>
       <c r="D7">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>12.564577999999999</v>
@@ -1706,21 +1707,21 @@
       </c>
       <c r="AC7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>2.21</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
       </c>
       <c r="E8">
         <v>14.334533</v>
@@ -1811,16 +1812,16 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>0.47</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>0.63</v>
       </c>
       <c r="E9">
         <v>11.522468</v>
@@ -1906,21 +1907,21 @@
       </c>
       <c r="AC9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>561</v>
+        <v>3.31</v>
       </c>
       <c r="E10">
         <v>11.495595</v>
@@ -2011,16 +2012,16 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11">
-        <v>2.21</v>
+        <v>528</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0.99</v>
       </c>
       <c r="E11">
         <v>13.754384999999999</v>
@@ -2111,16 +2112,16 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>561</v>
       </c>
       <c r="D12">
-        <v>543</v>
+        <v>1.01</v>
       </c>
       <c r="E12">
         <v>11.444682999999999</v>
@@ -2206,21 +2207,21 @@
       </c>
       <c r="AC12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>0.72</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>1.02</v>
       </c>
       <c r="E13">
         <v>5.6438432000000001</v>
@@ -2306,21 +2307,21 @@
       </c>
       <c r="AC13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
-        <v>1.1200000000000001</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>1.78</v>
       </c>
       <c r="E14">
         <v>10.111151</v>
@@ -2406,21 +2407,21 @@
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>568</v>
       </c>
       <c r="D15">
-        <v>568</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>10.898168999999999</v>
@@ -2506,21 +2507,21 @@
       </c>
       <c r="AC15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
         <v>0.98</v>
-      </c>
-      <c r="D16">
-        <v>561</v>
       </c>
       <c r="E16">
         <v>15.202851000000001</v>
@@ -2606,21 +2607,21 @@
       </c>
       <c r="AC16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>6.54</v>
+        <v>113</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0.52</v>
       </c>
       <c r="E17">
         <v>15.200411000000001</v>
@@ -2711,16 +2712,16 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>567</v>
+        <v>2.81</v>
       </c>
       <c r="E18">
         <v>7.9637054999999997</v>
@@ -2806,21 +2807,21 @@
       </c>
       <c r="AC18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1.33</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>147</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E19">
         <v>11.661752</v>
@@ -2906,21 +2907,21 @@
       </c>
       <c r="AC19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>2.54</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>2.96</v>
       </c>
       <c r="E20">
         <v>12.972507999999999</v>
@@ -3011,16 +3012,16 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>3.56</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>3.74</v>
       </c>
       <c r="E21">
         <v>11.173310000000001</v>
@@ -3111,16 +3112,16 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>10.59</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="E22">
         <v>18.741371000000001</v>
@@ -3211,16 +3212,16 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>4.57</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>81</v>
+        <v>1.32</v>
       </c>
       <c r="E23">
         <v>15.323845</v>
@@ -3311,16 +3312,16 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>1.1000000000000001</v>
+        <v>170</v>
       </c>
       <c r="D24">
-        <v>325</v>
+        <v>2.34</v>
       </c>
       <c r="E24">
         <v>16.85998</v>
@@ -3406,21 +3407,21 @@
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>0.35</v>
+        <v>-99999</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>3.5821752999999998</v>
@@ -3511,16 +3512,16 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>567</v>
       </c>
       <c r="D26">
-        <v>567</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>6.3716473999999996</v>
@@ -3606,21 +3607,21 @@
       </c>
       <c r="AC26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>1.07</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>499</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E27">
         <v>13.241709999999999</v>
@@ -3706,21 +3707,21 @@
       </c>
       <c r="AC27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>1.01</v>
+        <v>543</v>
       </c>
       <c r="D28">
-        <v>563</v>
+        <v>0.95</v>
       </c>
       <c r="E28">
         <v>12.313594</v>
@@ -3806,21 +3807,21 @@
       </c>
       <c r="AC28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>2.79</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="E29">
         <v>11.210561999999999</v>
@@ -3911,16 +3912,16 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>4.95</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
       </c>
       <c r="E30">
         <v>15.214639999999999</v>
@@ -4011,16 +4012,16 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31">
-        <v>0.82</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>531</v>
+        <v>2.75</v>
       </c>
       <c r="E31">
         <v>10.097594000000001</v>
@@ -4106,21 +4107,21 @@
       </c>
       <c r="AC31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>2.06</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>4.12</v>
       </c>
       <c r="E32">
         <v>13.968588</v>
@@ -4211,16 +4212,16 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>-99999</v>
+        <v>0.43</v>
       </c>
       <c r="E33">
         <v>5.8434423999999998</v>
@@ -4306,21 +4307,21 @@
       </c>
       <c r="AC33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34">
-        <v>10.74</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0.99</v>
       </c>
       <c r="E34">
         <v>10.327491999999999</v>
@@ -4365,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S65" si="12">SUM(K34:R34)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T34">
@@ -4405,22 +4406,22 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <f t="shared" ref="AC34:AC53" si="13">IF(C34&gt;2, 1, 0)</f>
+        <f t="shared" ref="AC34:AC53" si="12">IF(C34&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>10.74</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
       </c>
       <c r="E35">
         <v>16.428481999999999</v>
@@ -4465,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T35">
@@ -4473,15 +4474,15 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35:U53" si="14">K35/$S35</f>
+        <f t="shared" ref="U35:U53" si="13">K35/$S35</f>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" ref="V35:V53" si="15">L35/$S35</f>
+        <f t="shared" ref="V35:V53" si="14">L35/$S35</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="W35">
-        <f t="shared" ref="W35:W53" si="16">M35/$S35</f>
+        <f t="shared" ref="W35:W53" si="15">M35/$S35</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="X35">
@@ -4505,22 +4506,22 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>4.29</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
       </c>
       <c r="E36">
         <v>11.568930999999999</v>
@@ -4565,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T36">
@@ -4573,15 +4574,15 @@
         <v>1</v>
       </c>
       <c r="U36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X36">
@@ -4605,22 +4606,22 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>0.68</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>316</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E37">
         <v>5.9936423000000003</v>
@@ -4665,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T37">
@@ -4673,15 +4674,15 @@
         <v>1</v>
       </c>
       <c r="U37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X37">
@@ -4705,22 +4706,22 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
         <v>2</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
       </c>
       <c r="E38">
         <v>11.474065</v>
@@ -4765,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T38">
@@ -4773,15 +4774,15 @@
         <v>0</v>
       </c>
       <c r="U38">
+        <f t="shared" si="13"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="14"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X38">
@@ -4805,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39">
-        <v>1.81</v>
+        <v>561</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>0.96</v>
       </c>
       <c r="E39">
         <v>15.359131</v>
@@ -4865,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T39">
@@ -4873,15 +4874,15 @@
         <v>0</v>
       </c>
       <c r="U39">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="14"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="X39">
@@ -4905,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40">
+        <v>57</v>
+      </c>
+      <c r="D40">
         <v>4.99</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
       </c>
       <c r="E40">
         <v>15.036624</v>
@@ -4965,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T40">
@@ -4973,15 +4974,15 @@
         <v>0</v>
       </c>
       <c r="U40">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V40">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W40">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X40">
@@ -5005,22 +5006,22 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>0.94</v>
+        <v>-99999</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>9.5245247000000006</v>
@@ -5065,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T41">
@@ -5073,15 +5074,15 @@
         <v>1</v>
       </c>
       <c r="U41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X41">
@@ -5105,22 +5106,22 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
       </c>
       <c r="C42">
-        <v>1.29</v>
+        <v>525</v>
       </c>
       <c r="D42">
-        <v>136</v>
+        <v>1.06</v>
       </c>
       <c r="E42">
         <v>5.7086854000000002</v>
@@ -5165,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="S42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T42">
@@ -5173,15 +5174,15 @@
         <v>0</v>
       </c>
       <c r="U42">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V42">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X42">
@@ -5205,22 +5206,22 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43">
-        <v>1.25</v>
+        <v>66</v>
       </c>
       <c r="D43">
-        <v>363</v>
+        <v>1.33</v>
       </c>
       <c r="E43">
         <v>11.451571</v>
@@ -5265,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T43">
@@ -5273,15 +5274,15 @@
         <v>0</v>
       </c>
       <c r="U43">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V43">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W43">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X43">
@@ -5305,22 +5306,22 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>5.84</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>9.73</v>
       </c>
       <c r="E44">
         <v>6.1818871</v>
@@ -5365,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="S44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T44">
@@ -5373,15 +5374,15 @@
         <v>0</v>
       </c>
       <c r="U44">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V44">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W44">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X44">
@@ -5405,22 +5406,22 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D45">
-        <v>-99999</v>
+        <v>1.26</v>
       </c>
       <c r="E45">
         <v>4.3814712</v>
@@ -5465,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T45">
@@ -5473,15 +5474,15 @@
         <v>0</v>
       </c>
       <c r="U45">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X45">
@@ -5505,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
       </c>
       <c r="C46">
-        <v>2.99</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>2.54</v>
       </c>
       <c r="E46">
         <v>6.9306869999999998</v>
@@ -5565,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T46">
@@ -5573,15 +5574,15 @@
         <v>0</v>
       </c>
       <c r="U46">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V46">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W46">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X46">
@@ -5605,22 +5606,22 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>2.39</v>
       </c>
       <c r="E47">
         <v>18.851009000000001</v>
@@ -5665,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T47">
@@ -5673,15 +5674,15 @@
         <v>0</v>
       </c>
       <c r="U47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X47">
@@ -5705,22 +5706,22 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>1.1299999999999999</v>
+        <v>529</v>
       </c>
       <c r="D48">
-        <v>108</v>
+        <v>1.06</v>
       </c>
       <c r="E48">
         <v>16.306683</v>
@@ -5765,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T48">
@@ -5773,15 +5774,15 @@
         <v>0</v>
       </c>
       <c r="U48">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X48">
@@ -5805,22 +5806,22 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>10.16</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="E49">
         <v>7.3403029000000002</v>
@@ -5865,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T49">
@@ -5873,15 +5874,15 @@
         <v>0</v>
       </c>
       <c r="U49">
+        <f t="shared" si="13"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V49">
         <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X49">
@@ -5905,22 +5906,22 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
       <c r="C50">
-        <v>1.79</v>
+        <v>251</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>1.54</v>
       </c>
       <c r="E50">
         <v>10.904189000000001</v>
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T50">
@@ -5973,15 +5974,15 @@
         <v>0</v>
       </c>
       <c r="U50">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V50">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V50">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W50">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X50">
@@ -6005,22 +6006,22 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="D51">
-        <v>-99999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E51">
         <v>11.770149999999999</v>
@@ -6065,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T51">
@@ -6073,15 +6074,15 @@
         <v>0</v>
       </c>
       <c r="U51">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="14"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V51">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W51">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X51">
@@ -6105,22 +6106,22 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52">
-        <v>1.03</v>
+        <v>558</v>
       </c>
       <c r="D52">
-        <v>544</v>
+        <v>1.02</v>
       </c>
       <c r="E52">
         <v>7.5264053000000004</v>
@@ -6165,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T52">
@@ -6173,15 +6174,15 @@
         <v>0</v>
       </c>
       <c r="U52">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V52">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V52">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X52">
@@ -6205,22 +6206,22 @@
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D53">
-        <v>-99999</v>
+        <v>0.24</v>
       </c>
       <c r="E53">
         <v>6.4195795000000002</v>
@@ -6265,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T53">
@@ -6273,15 +6274,15 @@
         <v>0</v>
       </c>
       <c r="U53">
+        <f t="shared" si="13"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X53">
@@ -6305,8 +6306,8 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/score_based_efdata_binary.xlsx
+++ b/data/score_based_efdata_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26F3EF6-5E75-4B89-A1CB-B1097DAAE5D0}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E4A4DC-4592-46D8-98AF-D4FE49E7C534}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_efdata_binary" sheetId="1" r:id="rId1"/>
@@ -1011,17 +1011,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2:AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1206,11 +1206,11 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AC33" si="2">IF(C2&gt;2, 1, 0)</f>
+        <f>IF(D2&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1270,47 +1270,47 @@
         <v>7</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T53" si="3">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
+        <f t="shared" ref="T3:T53" si="2">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U34" si="4">K3/$S3</f>
+        <f t="shared" ref="U3:U34" si="3">K3/$S3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V34" si="5">L3/$S3</f>
+        <f t="shared" ref="V3:V34" si="4">L3/$S3</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W34" si="6">M3/$S3</f>
+        <f t="shared" ref="W3:W34" si="5">M3/$S3</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X53" si="7">N3/$S3</f>
+        <f t="shared" ref="X3:X53" si="6">N3/$S3</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y53" si="8">O3/$S3</f>
+        <f t="shared" ref="Y3:Y53" si="7">O3/$S3</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z53" si="9">P3/$S3</f>
+        <f t="shared" ref="Z3:Z53" si="8">P3/$S3</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA53" si="10">Q3/$S3</f>
+        <f t="shared" ref="AA3:AA53" si="9">Q3/$S3</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB53" si="11">R3/$S3</f>
+        <f t="shared" ref="AB3:AB53" si="10">R3/$S3</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AC3:AC53" si="11">IF(D3&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1370,47 +1370,47 @@
         <v>7</v>
       </c>
       <c r="T4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1470,47 +1470,47 @@
         <v>7</v>
       </c>
       <c r="T5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1570,47 +1570,47 @@
         <v>7</v>
       </c>
       <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V6">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z6">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1670,47 +1670,47 @@
         <v>7</v>
       </c>
       <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z7">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1770,47 +1770,47 @@
         <v>7</v>
       </c>
       <c r="T8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1870,47 +1870,47 @@
         <v>7</v>
       </c>
       <c r="T9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1970,47 +1970,47 @@
         <v>7</v>
       </c>
       <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V10">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W10">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y10">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2070,47 +2070,47 @@
         <v>7</v>
       </c>
       <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2170,47 +2170,47 @@
         <v>7</v>
       </c>
       <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="6"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2270,47 +2270,47 @@
         <v>7</v>
       </c>
       <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2370,47 +2370,47 @@
         <v>7</v>
       </c>
       <c r="T14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="X14">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2470,47 +2470,47 @@
         <v>7</v>
       </c>
       <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="6"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z15">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="9"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2570,47 +2570,47 @@
         <v>7</v>
       </c>
       <c r="T16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2670,47 +2670,47 @@
         <v>7</v>
       </c>
       <c r="T17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="8"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2770,47 +2770,47 @@
         <v>7</v>
       </c>
       <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V18">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z18">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2870,47 +2870,47 @@
         <v>7</v>
       </c>
       <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y19">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB19">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2970,47 +2970,47 @@
         <v>7</v>
       </c>
       <c r="T20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB20">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3070,47 +3070,47 @@
         <v>7</v>
       </c>
       <c r="T21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3170,47 +3170,47 @@
         <v>7</v>
       </c>
       <c r="T22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V22">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3270,47 +3270,47 @@
         <v>7</v>
       </c>
       <c r="T23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3370,47 +3370,47 @@
         <v>7</v>
       </c>
       <c r="T24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f t="shared" si="6"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3470,47 +3470,47 @@
         <v>7</v>
       </c>
       <c r="T25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3570,47 +3570,47 @@
         <v>7</v>
       </c>
       <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V26">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z26">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3670,47 +3670,47 @@
         <v>7</v>
       </c>
       <c r="T27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3770,47 +3770,47 @@
         <v>7</v>
       </c>
       <c r="T28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V28">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W28">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3870,47 +3870,47 @@
         <v>7</v>
       </c>
       <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3970,47 +3970,47 @@
         <v>7</v>
       </c>
       <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V30">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4070,47 +4070,47 @@
         <v>7</v>
       </c>
       <c r="T31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4170,47 +4170,47 @@
         <v>7</v>
       </c>
       <c r="T32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W32">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB32">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4270,47 +4270,47 @@
         <v>7</v>
       </c>
       <c r="T33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4370,47 +4370,47 @@
         <v>7</v>
       </c>
       <c r="T34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="5"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="W34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC34">
-        <f t="shared" ref="AC34:AC53" si="12">IF(C34&gt;2, 1, 0)</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4470,47 +4470,47 @@
         <v>7</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="U35:U53" si="13">K35/$S35</f>
+        <f t="shared" ref="U35:U53" si="12">K35/$S35</f>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" ref="V35:V53" si="14">L35/$S35</f>
+        <f t="shared" ref="V35:V53" si="13">L35/$S35</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="W35">
-        <f t="shared" ref="W35:W53" si="15">M35/$S35</f>
+        <f t="shared" ref="W35:W53" si="14">M35/$S35</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="X35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4570,47 +4570,47 @@
         <v>7</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U36">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4670,47 +4670,47 @@
         <v>7</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC37">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4770,47 +4770,47 @@
         <v>7</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U38">
+        <f t="shared" si="12"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="13"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z38">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA38">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC38">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -4870,47 +4870,47 @@
         <v>7</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39">
+        <f t="shared" si="12"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
-      </c>
       <c r="X39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y39">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z39">
         <f t="shared" si="8"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC39">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4970,47 +4970,47 @@
         <v>7</v>
       </c>
       <c r="T40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U40">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="13"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V40">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W40">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="X40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z40">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA40">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5070,47 +5070,47 @@
         <v>7</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5170,47 +5170,47 @@
         <v>7</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U42">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="13"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V42">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="X42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB42">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5270,47 +5270,47 @@
         <v>7</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U43">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="13"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V43">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W43">
         <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="8"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Z43">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA43">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC43">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -5370,47 +5370,47 @@
         <v>7</v>
       </c>
       <c r="T44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="13"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V44">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W44">
         <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z44">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA44">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5470,47 +5470,47 @@
         <v>7</v>
       </c>
       <c r="T45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U45">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="13"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y45">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z45">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5570,47 +5570,47 @@
         <v>7</v>
       </c>
       <c r="T46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U46">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="13"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="V46">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W46">
         <f t="shared" si="14"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="15"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z46">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA46">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -5670,47 +5670,47 @@
         <v>7</v>
       </c>
       <c r="T47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="15"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y47">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z47">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -5770,47 +5770,47 @@
         <v>7</v>
       </c>
       <c r="T48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U48">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="13"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="15"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="X48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z48">
         <f t="shared" si="8"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB48">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC48">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -5870,47 +5870,47 @@
         <v>7</v>
       </c>
       <c r="T49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U49">
+        <f t="shared" si="12"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V49">
         <f t="shared" si="13"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y49">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z49">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC49">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5970,47 +5970,47 @@
         <v>7</v>
       </c>
       <c r="T50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U50">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V50">
         <f t="shared" si="13"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V50">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W50">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W50">
-        <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="X50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z50">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA50">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC50">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -6070,47 +6070,47 @@
         <v>7</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U51">
+        <f t="shared" si="12"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="13"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="V51">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W51">
         <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y51">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z51">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC51">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -6170,47 +6170,47 @@
         <v>7</v>
       </c>
       <c r="T52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U52">
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V52">
         <f t="shared" si="13"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="V52">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W52">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W52">
-        <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="X52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z52">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA52">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC52">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -6270,44 +6270,44 @@
         <v>7</v>
       </c>
       <c r="T53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U53">
+        <f t="shared" si="12"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="13"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W53">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="X53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y53">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z53">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <f t="shared" si="11"/>
         <v>0</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="12"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/score_based_efdata_binary.xlsx
+++ b/data/score_based_efdata_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E4A4DC-4592-46D8-98AF-D4FE49E7C534}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:40009_{1673F3A0-A6F9-4DED-828E-5A531AA80D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6938311-26BC-47A2-BFC9-FC83C8EFEACA}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_efdata_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
   <si>
     <t>Receptor</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>quality</t>
+  </si>
+  <si>
+    <t>s_score</t>
   </si>
 </sst>
 </file>
@@ -1009,19 +1012,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2:AC53"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,88 +1032,91 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1118,68 +1124,67 @@
         <v>27</v>
       </c>
       <c r="C2">
+        <v>-0.216667</v>
+      </c>
+      <c r="D2">
         <v>61</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.87</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>14.777996999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.1645132</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.9017963</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.749083000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.0763645000000004</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8.5275440000000007</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S53" si="0">SUM(K2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T53" si="0">SUM(L2:S2)</f>
         <v>7</v>
       </c>
-      <c r="T2">
-        <f>IF(OR(K2=S2,L2=S2,M2=S2,N2=S2,O2=S2,P2=S2,Q2=S2,R2=S2), 1, 0)</f>
-        <v>0</v>
-      </c>
       <c r="U2">
-        <f t="shared" ref="U2:AB2" si="1">K2/$S2</f>
+        <f>IF(OR(L2=T2,M2=T2,N2=T2,O2=T2,P2=T2,Q2=T2,R2=T2,S2=T2), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:AC2" si="1">L2/$T2</f>
         <v>0.5714285714285714</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="W2">
         <f t="shared" si="1"/>
@@ -1187,7 +1192,7 @@
       </c>
       <c r="X2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y2">
         <f t="shared" si="1"/>
@@ -1195,22 +1200,26 @@
       </c>
       <c r="Z2">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>IF(D2&gt;2, 1, 0)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>IF(E2&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1218,99 +1227,102 @@
         <v>28</v>
       </c>
       <c r="C3">
+        <v>-4.4963699999999998</v>
+      </c>
+      <c r="D3">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.02</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>17.045998000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.1645132</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.312481999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10.601196</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.3994144999999998</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>8.8649368000000006</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T53" si="2">IF(OR(K3=S3,L3=S3,M3=S3,N3=S3,O3=S3,P3=S3,Q3=S3,R3=S3), 1, 0)</f>
-        <v>0</v>
-      </c>
       <c r="U3">
-        <f t="shared" ref="U3:U34" si="3">K3/$S3</f>
+        <f t="shared" ref="U3:U53" si="2">IF(OR(L3=T3,M3=T3,N3=T3,O3=T3,P3=T3,Q3=T3,R3=T3,S3=T3), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V34" si="3">L3/$T3</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V34" si="4">L3/$S3</f>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="W3">
-        <f t="shared" ref="W3:W34" si="5">M3/$S3</f>
-        <v>0</v>
+        <f t="shared" ref="W3:W34" si="4">M3/$T3</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X53" si="6">N3/$S3</f>
+        <f t="shared" ref="X3:X34" si="5">N3/$T3</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y53" si="7">O3/$S3</f>
+        <f t="shared" ref="Y3:Y53" si="6">O3/$T3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z53" si="7">P3/$T3</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z53" si="8">P3/$S3</f>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA53" si="9">Q3/$S3</f>
-        <v>0</v>
+        <f t="shared" ref="AA3:AA53" si="8">Q3/$T3</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB53" si="10">R3/$S3</f>
+        <f t="shared" ref="AB3:AB53" si="9">R3/$T3</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC53" si="11">IF(D3&gt;2, 1, 0)</f>
+        <f t="shared" ref="AC3:AC53" si="10">S3/$T3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD53" si="11">IF(E3&gt;2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1318,35 +1330,35 @@
         <v>29</v>
       </c>
       <c r="C4">
+        <v>-0.118182</v>
+      </c>
+      <c r="D4">
         <v>343</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.07</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17.448446000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.88897358999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.0486497999999997</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.749083000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.6096786999999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7.8808202999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -1366,51 +1378,54 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1418,34 +1433,34 @@
         <v>30</v>
       </c>
       <c r="C5">
+        <v>-4.2737800000000004</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.92</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8.2198867999999994</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.2708508999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.2462834999999997</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.0561609000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.1781515999999996</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7.9938798000000002</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1454,11 +1469,11 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1466,51 +1481,54 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1518,37 +1536,37 @@
         <v>27</v>
       </c>
       <c r="C6">
+        <v>-0.4</v>
+      </c>
+      <c r="D6">
         <v>543</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.04</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>11.533735</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.1689938</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.7200588999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.7865976999999997</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.9519479</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.4088773999999997</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1557,60 +1575,63 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1618,99 +1639,102 @@
         <v>28</v>
       </c>
       <c r="C7">
+        <v>-4.3393100000000002</v>
+      </c>
+      <c r="D7">
         <v>531</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>12.564577999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.0023826</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.9473700999999997</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.602169</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.6743870000000003</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6.6105814000000001</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1718,35 +1742,35 @@
         <v>29</v>
       </c>
       <c r="C8">
+        <v>-0.11874999999999999</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.21</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.334533</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.4122893000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.0676184000000006</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7.7865976999999997</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.9519479</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.8723020999999997</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -1766,51 +1790,54 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1818,32 +1845,32 @@
         <v>30</v>
       </c>
       <c r="C9">
+        <v>-5.2948500000000003</v>
+      </c>
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.63</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>11.522468</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.6147522000000001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.2385010999999997</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9.3196010999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.3206028999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7.1799159000000001</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -1854,11 +1881,11 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1866,51 +1893,54 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1918,46 +1948,46 @@
         <v>27</v>
       </c>
       <c r="C10">
+        <v>-2.2991299999999999</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3.31</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11.495595</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.4378891</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5.3473271999999996</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.0793809999999997</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.8838477</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4.6792959999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1966,51 +1996,54 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2018,99 +2051,102 @@
         <v>28</v>
       </c>
       <c r="C11">
+        <v>-4.1451200000000004</v>
+      </c>
+      <c r="D11">
         <v>528</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.99</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>13.754384999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.0472271</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.6887755000000002</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9.3874969000000004</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.2861462000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.5699325000000002</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="8"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2118,41 +2154,41 @@
         <v>29</v>
       </c>
       <c r="C12">
+        <v>-0.147059</v>
+      </c>
+      <c r="D12">
         <v>561</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.01</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11.444682999999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.55258757000000003</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6.6236385999999996</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8.0793809999999997</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4.0991793000000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6.2249508000000002</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -2166,51 +2202,54 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2218,34 +2257,34 @@
         <v>30</v>
       </c>
       <c r="C13">
+        <v>-5.5728299999999997</v>
+      </c>
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.02</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.6438432000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.1392861999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.1542819</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.7140488999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.7678758000000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3.2753874999999999</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2254,11 +2293,11 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
@@ -2266,51 +2305,54 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2318,99 +2360,102 @@
         <v>27</v>
       </c>
       <c r="C14">
+        <v>-1.54</v>
+      </c>
+      <c r="D14">
         <v>22</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.78</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10.111151</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.2674928000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.3031506999999998</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.1245970999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.827318</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.1489506</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2418,99 +2463,102 @@
         <v>28</v>
       </c>
       <c r="C15">
+        <v>-4.1074099999999998</v>
+      </c>
+      <c r="D15">
         <v>568</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>10.898168999999999</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.9478753</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.6003246000000004</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7.1928763</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.0663735999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4.6612743999999999</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>3</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <f t="shared" si="8"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2518,35 +2566,35 @@
         <v>29</v>
       </c>
       <c r="C16">
+        <v>-3.2766500000000001</v>
+      </c>
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.98</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15.202851000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.60035490999999996</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7.4941158000000003</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.440987</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.9074730999999998</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6.5196357000000003</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -2554,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2566,51 +2614,54 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2618,99 +2669,102 @@
         <v>30</v>
       </c>
       <c r="C17">
+        <v>-4.2695400000000001</v>
+      </c>
+      <c r="D17">
         <v>113</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.52</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>15.200411000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.97112304000000005</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8.0181235999999991</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10.08287</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.9074730999999998</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6.0261415999999999</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2718,99 +2772,102 @@
         <v>27</v>
       </c>
       <c r="C18">
+        <v>-0.74166699999999997</v>
+      </c>
+      <c r="D18">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.81</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7.9637054999999997</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.1672883999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.3022856999999997</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8.6265497</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.9562446</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5.4434909999999999</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2818,34 +2875,34 @@
         <v>28</v>
       </c>
       <c r="C19">
+        <v>-3.9087399999999999</v>
+      </c>
+      <c r="D19">
         <v>57</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11.661752</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.0223062000000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7.8594641999999997</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8.7283621</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.6831472000000001</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5.9740396000000002</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2854,63 +2911,66 @@
         <v>0</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2918,35 +2978,35 @@
         <v>29</v>
       </c>
       <c r="C20">
+        <v>-0.3</v>
+      </c>
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2.96</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12.972507999999999</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.5307945999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5.6155124000000001</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.7283621</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.9562446</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.2341280000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
       <c r="M20">
         <v>0</v>
       </c>
@@ -2963,54 +3023,57 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3018,32 +3081,32 @@
         <v>30</v>
       </c>
       <c r="C21">
+        <v>-3.88375</v>
+      </c>
+      <c r="D21">
         <v>19</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3.74</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11.173310000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1232028</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6.5134401000000004</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8.2962284000000004</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.361326</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5.0247469000000002</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -3054,11 +3117,11 @@
         <v>0</v>
       </c>
       <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>7</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
       <c r="Q21">
         <v>0</v>
       </c>
@@ -3066,51 +3129,54 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3118,40 +3184,40 @@
         <v>27</v>
       </c>
       <c r="C22">
+        <v>-0.864286</v>
+      </c>
+      <c r="D22">
         <v>64</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4.55</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>18.741371000000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.1475755000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10.271137</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.064498</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.9861307000000004</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7.6004905999999997</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3163,54 +3229,57 @@
         <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3218,32 +3287,32 @@
         <v>28</v>
       </c>
       <c r="C23">
+        <v>-4.7305299999999999</v>
+      </c>
+      <c r="D23">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.32</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15.323845</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.62019795</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9.4857531000000002</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9.7632265</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4.7672119000000004</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7.5285615999999997</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -3254,11 +3323,11 @@
         <v>0</v>
       </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
         <v>0</v>
       </c>
@@ -3266,51 +3335,54 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3318,31 +3390,31 @@
         <v>29</v>
       </c>
       <c r="C24">
+        <v>-1.47143</v>
+      </c>
+      <c r="D24">
         <v>170</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.34</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>16.85998</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.3378184</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7.8859081</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9.4673041999999992</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.1110319999999998</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>8.4720306000000001</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -3351,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3363,54 +3435,57 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3418,32 +3493,32 @@
         <v>30</v>
       </c>
       <c r="C25">
+        <v>-4.5591699999999999</v>
+      </c>
+      <c r="D25">
         <v>-99999</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>3.5821752999999998</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.53284704999999999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.8472801000000001</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9.7632265</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7.7819943</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>8.9440165</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
@@ -3454,11 +3529,11 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>7</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
@@ -3466,51 +3541,54 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3518,37 +3596,37 @@
         <v>27</v>
       </c>
       <c r="C26">
+        <v>-0.38636399999999999</v>
+      </c>
+      <c r="D26">
         <v>567</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>6.3716473999999996</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.1668242</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.0616755000000002</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7.8244381000000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.3968667999999997</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6.2503662000000002</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3557,60 +3635,63 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3618,32 +3699,32 @@
         <v>28</v>
       </c>
       <c r="C27">
+        <v>-4.4563499999999996</v>
+      </c>
+      <c r="D27">
         <v>18</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>13.241709999999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.0881802</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>8.4947537999999998</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.6107655000000003</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5.8287434999999999</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6.7350154</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -3654,11 +3735,11 @@
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
@@ -3666,51 +3747,54 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3718,40 +3802,40 @@
         <v>29</v>
       </c>
       <c r="C28">
+        <v>-0.283333</v>
+      </c>
+      <c r="D28">
         <v>543</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.95</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>12.313594</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.5434422000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8.0328845999999992</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7.5276073999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.0162477000000001</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.9866614</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3766,51 +3850,54 @@
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3818,34 +3905,34 @@
         <v>30</v>
       </c>
       <c r="C29">
+        <v>-4.1817500000000001</v>
+      </c>
+      <c r="D29">
         <v>11</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.01</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11.210561999999999</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.6187122</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6.1845651000000004</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>8.1534680999999996</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5.8066291999999997</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>6.7937779000000003</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3854,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>6</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
@@ -3866,51 +3953,54 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3918,40 +4008,40 @@
         <v>27</v>
       </c>
       <c r="C30">
+        <v>-0.64615400000000001</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4.95</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>15.214639999999999</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.5312703999999999</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>9.8374758</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>8.7211590000000001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.4673227999999998</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>7.0555687000000002</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3966,51 +4056,54 @@
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4018,99 +4111,102 @@
         <v>28</v>
       </c>
       <c r="C31">
+        <v>-4.9147699999999999</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.75</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>10.097594000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.70240599000000004</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6.2093715999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>9.1159610999999998</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.8341041000000002</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7.0362029000000001</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4118,40 +4214,40 @@
         <v>29</v>
       </c>
       <c r="C32">
+        <v>-0.84166700000000005</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4.12</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>13.968588</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.5312703999999999</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>8.3755693000000004</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>8.7682724000000007</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.4673227999999998</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.6396818</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4163,54 +4259,57 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4218,32 +4317,32 @@
         <v>30</v>
       </c>
       <c r="C33">
+        <v>-4.72783</v>
+      </c>
+      <c r="D33">
         <v>19</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.43</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5.8434423999999998</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.56070399000000004</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.9136175999999998</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9.5140934000000001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6.4035630000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7.9552765000000001</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
@@ -4254,11 +4353,11 @@
         <v>0</v>
       </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>7</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
       <c r="Q33">
         <v>0</v>
       </c>
@@ -4266,51 +4365,54 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4318,41 +4420,41 @@
         <v>27</v>
       </c>
       <c r="C34">
+        <v>-1.31</v>
+      </c>
+      <c r="D34">
         <v>54</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.99</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>10.327491999999999</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9.2528111999999996E-2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6.1438822999999996</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>9.5216246000000009</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.6983022999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6.5018358000000003</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>4</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
         <v>0</v>
       </c>
@@ -4366,51 +4468,54 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4418,99 +4523,102 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>-0.94</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>10.74</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>16.428481999999999</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.15925643</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>6.4405903999999996</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9.6859397999999999</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.6983022999999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.0900803000000003</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>4</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35">
-        <f t="shared" ref="U35:U53" si="12">K35/$S35</f>
-        <v>0</v>
-      </c>
       <c r="V35">
-        <f t="shared" ref="V35:V53" si="13">L35/$S35</f>
+        <f t="shared" ref="V35:V53" si="12">L35/$T35</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W53" si="13">M35/$T35</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="W35">
-        <f t="shared" ref="W35:W53" si="14">M35/$S35</f>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="X35">
+        <f t="shared" ref="X35:X53" si="14">N35/$T35</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <f t="shared" si="8"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4518,35 +4626,35 @@
         <v>29</v>
       </c>
       <c r="C36">
+        <v>-0.1</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4.29</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>11.568930999999999</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.6943507</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6.4174981000000004</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.7574310000000004</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.4160341999999999</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5.8807568999999997</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>7</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
       <c r="M36">
         <v>0</v>
       </c>
@@ -4566,51 +4674,54 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4618,32 +4729,32 @@
         <v>30</v>
       </c>
       <c r="C37">
+        <v>-3.73333</v>
+      </c>
+      <c r="D37">
         <v>19</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>5.9936423000000003</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.54007499999999997</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3.0887859</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9.0107870000000005</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4.4286827999999998</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>6.8876828999999997</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -4654,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0</v>
       </c>
@@ -4666,51 +4777,54 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4718,35 +4832,35 @@
         <v>27</v>
       </c>
       <c r="C38">
+        <v>-0.1125</v>
+      </c>
+      <c r="D38">
         <v>10</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>11.474065</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.73048930999999995</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>6.071701</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>8.1142196999999996</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.9042709000000002</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>5.4245868000000002</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>6</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
@@ -4757,60 +4871,63 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="12"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -4818,47 +4935,47 @@
         <v>28</v>
       </c>
       <c r="C39">
+        <v>-2.12778</v>
+      </c>
+      <c r="D39">
         <v>561</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.96</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>15.359131</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.3907092000000001</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>7.6025276000000002</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>9.7346087000000008</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>5.0179337999999998</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>7.1698092999999998</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>2</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>3</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -4866,51 +4983,54 @@
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="12"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <f t="shared" si="14"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4918,99 +5038,102 @@
         <v>29</v>
       </c>
       <c r="C40">
+        <v>-1.65</v>
+      </c>
+      <c r="D40">
         <v>57</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4.99</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>15.036624</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.1693492000000001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>8.0140838999999993</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>8.9300785000000005</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3.1334168999999998</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>5.8112472999999998</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>4</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5018,32 +5141,32 @@
         <v>30</v>
       </c>
       <c r="C41">
+        <v>-6.4119999999999999</v>
+      </c>
+      <c r="D41">
         <v>-99999</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>9.5245247000000006</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.87619948000000003</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>5.5384297</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>9.7346087000000008</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>7.7819437999999996</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>8.7554274000000003</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -5054,11 +5177,11 @@
         <v>0</v>
       </c>
       <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>7</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
       <c r="Q41">
         <v>0</v>
       </c>
@@ -5066,51 +5189,54 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5118,40 +5244,40 @@
         <v>27</v>
       </c>
       <c r="C42">
+        <v>-0.56428599999999995</v>
+      </c>
+      <c r="D42">
         <v>525</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.06</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>5.7086854000000002</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.75621163999999996</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3.1831779</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.8259100999999998</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4.9590192000000002</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>6.2595577000000002</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5163,54 +5289,57 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5218,99 +5347,102 @@
         <v>28</v>
       </c>
       <c r="C43">
+        <v>-3.84036</v>
+      </c>
+      <c r="D43">
         <v>66</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.33</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>11.451571</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.1513682999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>6.4403315000000001</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>7.3848462000000001</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4.7553058000000004</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5.733695</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>2</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -5318,37 +5450,37 @@
         <v>29</v>
       </c>
       <c r="C44">
+        <v>-0.79166700000000001</v>
+      </c>
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>9.73</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6.1818871</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1.3398620000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.6666405000000002</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>7.8259100999999998</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>3.61043</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5.3544869000000004</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>3</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -5357,60 +5489,63 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>2</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5418,35 +5553,35 @@
         <v>30</v>
       </c>
       <c r="C45">
+        <v>-4.4749299999999996</v>
+      </c>
+      <c r="D45">
         <v>358</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.26</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>4.3814712</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.091728</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.4352429</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>7.4313354</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>4.7553058000000004</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>6.2018924000000002</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>3</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
       <c r="M45">
         <v>0</v>
       </c>
@@ -5454,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>4</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
@@ -5466,51 +5601,54 @@
         <v>0</v>
       </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5518,99 +5656,102 @@
         <v>27</v>
       </c>
       <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2.54</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>6.9306869999999998</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1.1183616999999999</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>4.2815633000000002</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>9.3384333000000002</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5.8081149999999999</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>7.5769323999999996</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>3</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <f t="shared" si="13"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -5618,47 +5759,47 @@
         <v>28</v>
       </c>
       <c r="C47">
+        <v>-5.6939500000000001</v>
+      </c>
+      <c r="D47">
         <v>17</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>2.39</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>18.851009000000001</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1.7228479000000001</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>9.8291711999999993</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>10.534269</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>3.9397129999999998</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>7.5068416999999998</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>6</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
@@ -5666,51 +5807,54 @@
         <v>0</v>
       </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -5718,99 +5862,102 @@
         <v>29</v>
       </c>
       <c r="C48">
+        <v>-2.8205800000000001</v>
+      </c>
+      <c r="D48">
         <v>529</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.06</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>16.306683</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1.8162537999999999</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>10.638532</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>9.2171097</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>4.8855443000000003</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>7.9377465000000003</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -5818,34 +5965,34 @@
         <v>30</v>
       </c>
       <c r="C49">
+        <v>-4.9140600000000001</v>
+      </c>
+      <c r="D49">
         <v>45</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.68</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7.3403029000000002</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1.6276980999999999</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>4.0278229999999997</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>9.1865635000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6.0771585000000004</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>7.5403190000000002</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5854,11 +6001,11 @@
         <v>0</v>
       </c>
       <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>6</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -5866,51 +6013,54 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5918,99 +6068,102 @@
         <v>27</v>
       </c>
       <c r="C50">
+        <v>-0.71666700000000005</v>
+      </c>
+      <c r="D50">
         <v>251</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.54</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>10.904189000000001</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.77097987999999995</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>4.9906062999999996</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>7.7149843999999996</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.5739269</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>4.4123244000000001</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -6018,47 +6171,47 @@
         <v>28</v>
       </c>
       <c r="C51">
+        <v>-5.3398399999999997</v>
+      </c>
+      <c r="D51">
         <v>509</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>11.770149999999999</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.55587226000000001</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5.1787042999999997</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>7.2324171000000002</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>3.5874902999999998</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>4.6813912000000002</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>4</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
@@ -6066,51 +6219,54 @@
         <v>0</v>
       </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <f t="shared" si="12"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -6118,99 +6274,102 @@
         <v>29</v>
       </c>
       <c r="C52">
+        <v>-0.76428600000000002</v>
+      </c>
+      <c r="D52">
         <v>558</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.02</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>7.5264053000000004</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1.1091302999999999</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>4.1441597999999997</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5.4519371999999997</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1.7050276</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>3.9711382</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>4</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -6218,34 +6377,34 @@
         <v>30</v>
       </c>
       <c r="C53">
+        <v>-5.4542400000000004</v>
+      </c>
+      <c r="D53">
         <v>44</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.24</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6.4195795000000002</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.71409100000000003</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3.5076087</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>4.9511218000000001</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>3.5874902999999998</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>4.4426904</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6254,11 +6413,11 @@
         <v>0</v>
       </c>
       <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>6</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
         <v>0</v>
       </c>
@@ -6266,46 +6425,49 @@
         <v>0</v>
       </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
